--- a/benchmark/data.xlsx
+++ b/benchmark/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbarochiya/Desktop/me/workspace/finance/benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB7DD7-88FB-4F46-99CD-5948705C720E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE7C44F-42B0-C543-B630-8FA1A7A06806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15720" xr2:uid="{794274C8-7FDA-6C49-A5CA-B744DD24CDD1}"/>
   </bookViews>
@@ -91,16 +91,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -422,7 +419,7 @@
   <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,190 +444,190 @@
         <v>43855</v>
       </c>
       <c r="B2" s="4">
-        <v>48002</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43886</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>43920</v>
       </c>
       <c r="B4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>43946</v>
       </c>
       <c r="B5" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>43976</v>
       </c>
       <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44007</v>
       </c>
       <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44042</v>
       </c>
       <c r="B8" s="4">
-        <v>21000</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44074</v>
       </c>
       <c r="B9" s="4">
-        <v>10000</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44099</v>
       </c>
       <c r="B10" s="4">
-        <v>11000</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44135</v>
       </c>
       <c r="B11" s="4">
-        <v>19000</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44160</v>
       </c>
       <c r="B12" s="4">
-        <v>35000</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>44196</v>
       </c>
       <c r="B13" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>44227</v>
       </c>
       <c r="B14" s="4">
-        <v>35000</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>44255</v>
       </c>
       <c r="B15" s="4">
-        <v>39000</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44286</v>
       </c>
       <c r="B16" s="4">
-        <v>35000</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44316</v>
       </c>
       <c r="B17" s="4">
-        <v>72700</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44347</v>
       </c>
       <c r="B18" s="4">
-        <v>34000</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44377</v>
       </c>
       <c r="B19" s="4">
-        <v>34000</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44408</v>
       </c>
       <c r="B20" s="4">
-        <v>14000</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+        <v>30000</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -639,517 +636,517 @@
       <c r="B21" s="4">
         <v>30000</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44469</v>
       </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="4">
+        <v>30000</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44499</v>
       </c>
-      <c r="B23" s="6">
-        <v>-14189</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="4">
+        <v>30000</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44530</v>
       </c>
-      <c r="B24" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="4">
+        <v>30000</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>44561</v>
       </c>
-      <c r="B25" s="10">
-        <v>5000</v>
+      <c r="B25" s="4">
+        <v>30000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="7"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
+      <c r="A37" s="7"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
+      <c r="A43" s="7"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
+      <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+      <c r="A47" s="6"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
+      <c r="A48" s="6"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+      <c r="A49" s="6"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
+      <c r="A50" s="6"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
+      <c r="A51" s="6"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
+      <c r="A52" s="6"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
+      <c r="A53" s="6"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
+      <c r="A54" s="6"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
+      <c r="A55" s="6"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
+      <c r="A56" s="6"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
+      <c r="A57" s="7"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
+      <c r="A58" s="7"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
+      <c r="A59" s="6"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
+      <c r="A60" s="6"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
+      <c r="A61" s="6"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
+      <c r="A62" s="6"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
+      <c r="A63" s="6"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
+      <c r="A64" s="6"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
+      <c r="A65" s="6"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
+      <c r="A66" s="6"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
+      <c r="A67" s="6"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
+      <c r="A68" s="7"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
+      <c r="A69" s="7"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
+      <c r="A70" s="7"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
+      <c r="A71" s="6"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
+      <c r="A72" s="6"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
+      <c r="A73" s="6"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
+      <c r="A74" s="6"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
+      <c r="A75" s="6"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
+      <c r="A76" s="6"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
+      <c r="A77" s="6"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
+      <c r="A78" s="7"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
+      <c r="A79" s="7"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
+      <c r="A80" s="6"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
+      <c r="A81" s="6"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
+      <c r="A82" s="6"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
+      <c r="A83" s="6"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
+      <c r="A84" s="6"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
+      <c r="A85" s="6"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
+      <c r="A86" s="7"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
+      <c r="A87" s="6"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
+      <c r="A88" s="6"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
+      <c r="A89" s="7"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
+      <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
+      <c r="A91" s="7"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
+      <c r="A92" s="7"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
+      <c r="A93" s="7"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
+      <c r="A94" s="7"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
+      <c r="A95" s="7"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
+      <c r="A96" s="7"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
+      <c r="A97" s="7"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
+      <c r="A98" s="6"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
+      <c r="A99" s="6"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
+      <c r="A100" s="6"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
+      <c r="A101" s="6"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
+      <c r="A102" s="6"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
+      <c r="A103" s="6"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8"/>
+      <c r="A104" s="7"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
+      <c r="A105" s="6"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8"/>
+      <c r="A106" s="7"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
+      <c r="A107" s="6"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
+      <c r="A108" s="6"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
+      <c r="A109" s="6"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8"/>
+      <c r="A110" s="7"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8"/>
+      <c r="A111" s="7"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
+      <c r="A112" s="6"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
+      <c r="A113" s="6"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
+      <c r="A114" s="6"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
+      <c r="A115" s="6"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
+      <c r="A116" s="6"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
+      <c r="A117" s="6"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
+      <c r="A118" s="6"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
+      <c r="A119" s="6"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
+      <c r="A120" s="6"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8"/>
+      <c r="A121" s="7"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8"/>
+      <c r="A122" s="7"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8"/>
+      <c r="A123" s="7"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8"/>
+      <c r="A124" s="7"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="8"/>
+      <c r="A125" s="7"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="8"/>
+      <c r="A126" s="7"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8"/>
+      <c r="A127" s="7"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8"/>
+      <c r="A128" s="7"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="8"/>
+      <c r="A129" s="7"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="7"/>
+      <c r="A130" s="6"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="7"/>
+      <c r="A131" s="6"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="7"/>
+      <c r="A132" s="6"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="7"/>
+      <c r="A133" s="6"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="7"/>
+      <c r="A134" s="6"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="7"/>
+      <c r="A135" s="6"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="7"/>
+      <c r="A136" s="6"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="7"/>
+      <c r="A137" s="6"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="7"/>
+      <c r="A138" s="6"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="7"/>
+      <c r="A139" s="6"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
+      <c r="A140" s="7"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="7"/>
+      <c r="A141" s="6"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="8"/>
+      <c r="A142" s="7"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="7"/>
+      <c r="A143" s="6"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="7"/>
+      <c r="A144" s="6"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="7"/>
+      <c r="A145" s="6"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="7"/>
+      <c r="A146" s="6"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="7"/>
+      <c r="A147" s="6"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="7"/>
+      <c r="A148" s="6"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="7"/>
+      <c r="A149" s="6"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="7"/>
+      <c r="A150" s="6"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="7"/>
+      <c r="A151" s="6"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="7"/>
+      <c r="A152" s="6"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="8"/>
+      <c r="A153" s="7"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="8"/>
+      <c r="A154" s="7"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="8"/>
+      <c r="A155" s="7"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="7"/>
+      <c r="A156" s="6"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="7"/>
+      <c r="A157" s="6"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="7"/>
+      <c r="A158" s="6"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="7"/>
+      <c r="A159" s="6"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="7"/>
+      <c r="A160" s="6"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="7"/>
+      <c r="A161" s="6"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="7"/>
+      <c r="A162" s="6"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="7"/>
+      <c r="A163" s="6"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="7"/>
+      <c r="A164" s="6"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="7"/>
+      <c r="A165" s="6"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="7"/>
+      <c r="A166" s="6"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="7"/>
+      <c r="A167" s="6"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="7"/>
+      <c r="A168" s="6"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="7"/>
+      <c r="A169" s="6"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="7"/>
+      <c r="A170" s="6"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="7"/>
+      <c r="A171" s="6"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="7"/>
+      <c r="A172" s="6"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="7"/>
+      <c r="A173" s="6"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="7"/>
+      <c r="A174" s="6"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="7"/>
+      <c r="A175" s="6"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="7"/>
+      <c r="A176" s="6"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="7"/>
+      <c r="A177" s="6"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="7"/>
+      <c r="A178" s="6"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="7"/>
+      <c r="A179" s="6"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="7"/>
+      <c r="A180" s="6"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="7"/>
+      <c r="A181" s="6"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="7"/>
+      <c r="A182" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
